--- a/bilingualism.xlsx
+++ b/bilingualism.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/GonzaloGGC/Desktop/code/infants/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE2B912-AA99-BF4A-92EF-F87B316B39D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C2E2B143-2E0C-3648-8F6E-785AB7DF565F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="108">
   <si>
     <t>study</t>
   </si>
@@ -283,12 +277,78 @@
   </si>
   <si>
     <t>anderson2020</t>
+  </si>
+  <si>
+    <t>byersheinlein2013</t>
+  </si>
+  <si>
+    <t>bosch2001_1_spa</t>
+  </si>
+  <si>
+    <t>bosch2001_1_cat</t>
+  </si>
+  <si>
+    <t>bosch2001_2_cat</t>
+  </si>
+  <si>
+    <t>bosch2001_3_cat</t>
+  </si>
+  <si>
+    <t>bosch2001_3_spa</t>
+  </si>
+  <si>
+    <t>fennell2007_1</t>
+  </si>
+  <si>
+    <t>fennell2007_2_chieng</t>
+  </si>
+  <si>
+    <t>fennell2007_2_freeng</t>
+  </si>
+  <si>
+    <t>singh2012_1</t>
+  </si>
+  <si>
+    <t>singh2012_2</t>
+  </si>
+  <si>
+    <t>byersheinlein2009_1</t>
+  </si>
+  <si>
+    <t>byersheinlein2009_2</t>
+  </si>
+  <si>
+    <t>gervain2013</t>
+  </si>
+  <si>
+    <t>Language Exposure Questionnaire</t>
+  </si>
+  <si>
+    <t>hoff2012</t>
+  </si>
+  <si>
+    <t>place2011</t>
+  </si>
+  <si>
+    <t>diary</t>
+  </si>
+  <si>
+    <t>dehouwer2003</t>
+  </si>
+  <si>
+    <t>marchman2010</t>
+  </si>
+  <si>
+    <t>marchman2004</t>
+  </si>
+  <si>
+    <t>Bilingual Background Interview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -333,7 +393,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de tabla 1" pivot="0" count="1" xr9:uid="{7AA64717-D9F4-544D-8AE3-B7434DD25B01}">
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -349,22 +409,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45CD4D17-3404-F44B-BB57-1A2BAA29BAE3}" name="Tabla1" displayName="Tabla1" ref="A1:J1048575" totalsRowShown="0">
-  <autoFilter ref="A1:J1048575" xr:uid="{C78CA71B-7975-DB45-9A71-33613C66399C}"/>
-  <sortState ref="A2:J56">
-    <sortCondition ref="B1:B1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J1048572" totalsRowShown="0">
+  <autoFilter ref="A1:J1048572"/>
+  <sortState ref="A2:J75">
+    <sortCondition ref="B1:B1048574"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C26E799C-80F4-8B49-BFAD-0AF17149AFB8}" name="study"/>
-    <tableColumn id="9" xr3:uid="{5A88EAD2-05AC-D64D-A681-ED772C9CCAF6}" name="year"/>
-    <tableColumn id="2" xr3:uid="{E1D5179C-BC11-2D4C-A59F-BB36B340EDBB}" name="minMonolingual_priori"/>
-    <tableColumn id="3" xr3:uid="{4B196AE9-8E2C-674F-8A73-C22713CE6F30}" name="maxBilingual_priori"/>
-    <tableColumn id="4" xr3:uid="{37BC7C3C-D56A-C64E-8C00-B7DB51670EFE}" name="meanMonolingual"/>
-    <tableColumn id="5" xr3:uid="{112CF0F6-5B15-A14F-A274-0C7E0CA506A5}" name="meanBilingual"/>
-    <tableColumn id="10" xr3:uid="{053393D2-F164-7B48-A9C5-81299BCF0F22}" name="n"/>
-    <tableColumn id="6" xr3:uid="{803C8025-5572-2C46-AFCE-D09291D37C22}" name="measure"/>
-    <tableColumn id="7" xr3:uid="{5C79F1B3-5DB9-6643-93D3-C597D596DDA3}" name="questionnaire"/>
-    <tableColumn id="8" xr3:uid="{CF150A8D-4DBB-1042-A7DB-7A820EA8B63D}" name="detailed"/>
+    <tableColumn id="1" name="study"/>
+    <tableColumn id="9" name="year"/>
+    <tableColumn id="2" name="minMonolingual_priori"/>
+    <tableColumn id="3" name="maxBilingual_priori"/>
+    <tableColumn id="4" name="meanMonolingual"/>
+    <tableColumn id="5" name="meanBilingual"/>
+    <tableColumn id="10" name="n"/>
+    <tableColumn id="6" name="measure"/>
+    <tableColumn id="7" name="questionnaire"/>
+    <tableColumn id="8" name="detailed"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de tabla 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,32 +719,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1E47D-1012-4140-9EF8-1C970FF92689}">
-  <dimension ref="A1:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -745,7 +805,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -774,7 +834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -803,7 +863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -832,7 +892,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -861,7 +921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -890,7 +950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -919,7 +979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -948,7 +1008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -977,7 +1037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -985,128 +1045,137 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>2003</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12">
-        <v>65</v>
+        <v>2001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>93</v>
-      </c>
-      <c r="F12">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B13">
-        <v>2003</v>
-      </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>65</v>
+        <v>2001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>91</v>
-      </c>
-      <c r="F13">
-        <v>62</v>
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B14">
-        <v>2003</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>65</v>
+        <v>2001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>92</v>
-      </c>
-      <c r="F14">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B15">
-        <v>2003</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
+        <v>2001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
       </c>
       <c r="D15">
         <v>65</v>
       </c>
-      <c r="E15">
-        <v>89</v>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B16">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1118,36 +1187,36 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>2003</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
+      <c r="C17">
+        <v>80</v>
       </c>
       <c r="D17">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
+      <c r="E17">
+        <v>93</v>
       </c>
       <c r="F17">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
         <v>2</v>
@@ -1159,224 +1228,224 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>2003</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>65</v>
+      </c>
+      <c r="E18">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>2003</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>2003</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>89</v>
+      </c>
+      <c r="F20">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>2003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>2003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>52</v>
-      </c>
-      <c r="B18">
-        <v>2007</v>
-      </c>
-      <c r="C18">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>2007</v>
-      </c>
-      <c r="C19">
-        <v>90</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>2007</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21">
-        <v>2007</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <v>2007</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
       </c>
       <c r="B23">
         <v>2007</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
+      <c r="C23">
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>2007</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
+      <c r="C24">
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>2007</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -1385,250 +1454,259 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>2007</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>2007</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2007</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
         <v>8</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>2008</v>
-      </c>
-      <c r="C26">
-        <v>90</v>
-      </c>
-      <c r="D26">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>2007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>2007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
         <v>70</v>
       </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27">
-        <v>2008</v>
-      </c>
-      <c r="C27">
-        <v>90</v>
-      </c>
-      <c r="D27">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28">
-        <v>2009</v>
-      </c>
-      <c r="C28">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29">
-        <v>2009</v>
-      </c>
-      <c r="C29">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>2009</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>2009</v>
-      </c>
-      <c r="C31">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>79</v>
+        <v>48.77</v>
+      </c>
+      <c r="G31">
+        <v>48</v>
       </c>
       <c r="H31" t="s">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
+      <c r="D32">
+        <v>75</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
       </c>
       <c r="F32">
-        <v>79</v>
+        <v>47.1</v>
+      </c>
+      <c r="G32">
+        <v>28</v>
       </c>
       <c r="H32" t="s">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>3</v>
+      <c r="D33">
+        <v>75</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
       </c>
       <c r="F33">
-        <v>79</v>
+        <v>53.4</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
       </c>
       <c r="H33" t="s">
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D34">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>3</v>
@@ -1642,25 +1720,22 @@
       <c r="I34" t="s">
         <v>6</v>
       </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>2009</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
+        <v>2008</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
@@ -1671,192 +1746,225 @@
       <c r="I35" t="s">
         <v>6</v>
       </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>2009</v>
       </c>
       <c r="C36">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>2009</v>
+      </c>
+      <c r="C37">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>2009</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>2009</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2009</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>2009</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>2009</v>
+      </c>
+      <c r="C42">
         <v>80</v>
       </c>
-      <c r="D36">
+      <c r="D42">
         <v>65</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
         <v>6</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>2010</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>2010</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38">
-        <v>70</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39">
-        <v>2010</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40">
-        <v>2010</v>
-      </c>
-      <c r="C40">
-        <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41">
-        <v>2010</v>
-      </c>
-      <c r="C41">
-        <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42">
-        <v>2010</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -1871,18 +1979,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>2011</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3</v>
+        <v>2009</v>
+      </c>
+      <c r="C44">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>65</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -1900,214 +2008,220 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>2010</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>2010</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>70</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48">
+        <v>2010</v>
+      </c>
+      <c r="C48">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>2010</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>2010</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>2011</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>2011</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>40</v>
       </c>
-      <c r="B45">
+      <c r="B53">
         <v>2011</v>
       </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" t="s">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46">
-        <v>2013</v>
-      </c>
-      <c r="C46">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>75</v>
-      </c>
-      <c r="F46">
-        <v>63</v>
-      </c>
-      <c r="H46" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>2013</v>
-      </c>
-      <c r="C47">
-        <v>75</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>80</v>
-      </c>
-      <c r="F47">
-        <v>66</v>
-      </c>
-      <c r="H47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>2014</v>
-      </c>
-      <c r="C48">
-        <v>90</v>
-      </c>
-      <c r="D48">
-        <v>75</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="H48" t="s">
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50">
-        <v>2016</v>
-      </c>
-      <c r="C50">
-        <v>100</v>
-      </c>
-      <c r="D50">
-        <v>51</v>
-      </c>
-      <c r="E50">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" t="s">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51">
-        <v>2016</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51">
-        <v>51</v>
-      </c>
-      <c r="E51">
-        <v>100</v>
-      </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>2017</v>
-      </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="E53">
-        <v>80</v>
-      </c>
-      <c r="F53">
-        <v>75</v>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3</v>
       </c>
       <c r="H53" t="s">
         <v>2</v>
@@ -2116,172 +2230,151 @@
         <v>6</v>
       </c>
       <c r="J53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>2012</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <v>2012</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>2012</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>2012</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>2012</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>49</v>
+      </c>
+      <c r="G58">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54">
-        <v>2018</v>
-      </c>
-      <c r="C54">
-        <v>75</v>
-      </c>
-      <c r="D54">
-        <v>75</v>
-      </c>
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54">
-        <v>20</v>
-      </c>
-      <c r="H54" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55">
-        <v>2018</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55">
-        <v>75</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56">
-        <v>2017</v>
-      </c>
-      <c r="C56">
-        <v>85</v>
-      </c>
-      <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56">
-        <v>97.5</v>
-      </c>
-      <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I56" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57">
-        <v>2017</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57">
-        <v>66.5</v>
-      </c>
-      <c r="G57">
-        <v>40</v>
-      </c>
-      <c r="H57" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58">
-        <v>2017</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58">
-        <v>65</v>
-      </c>
-      <c r="G58">
-        <v>20</v>
-      </c>
-      <c r="H58" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B59">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2293,27 +2386,27 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>61.38</v>
+        <v>57</v>
       </c>
       <c r="G59">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B60">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2325,123 +2418,648 @@
         <v>14</v>
       </c>
       <c r="F60">
-        <v>61.18</v>
+        <v>57</v>
       </c>
       <c r="G60">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B61">
+        <v>2013</v>
+      </c>
+      <c r="C61">
+        <v>75</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>63</v>
+      </c>
+      <c r="H61" t="s">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>2013</v>
+      </c>
+      <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>80</v>
+      </c>
+      <c r="F62">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>2014</v>
+      </c>
+      <c r="C63">
+        <v>90</v>
+      </c>
+      <c r="D63">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65">
+        <v>2015</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <v>61.38</v>
+      </c>
+      <c r="G65">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66">
+        <v>2015</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>70</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>61.18</v>
+      </c>
+      <c r="G66">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67">
+        <v>2016</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" t="s">
+        <v>2</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68">
+        <v>2016</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+      <c r="D68">
+        <v>51</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I68" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>2017</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>80</v>
+      </c>
+      <c r="F70">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>2017</v>
+      </c>
+      <c r="C71">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>97.5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>2017</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>66.5</v>
+      </c>
+      <c r="G72">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>2017</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>65</v>
+      </c>
+      <c r="G73">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75">
+        <v>18</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <v>2009</v>
+      </c>
+      <c r="C76">
+        <v>100</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>52</v>
+      </c>
+      <c r="G76">
+        <v>48</v>
+      </c>
+      <c r="H76" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77">
+        <v>2009</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>50</v>
+      </c>
+      <c r="G77">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>2013</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>51</v>
+      </c>
+      <c r="G78">
+        <v>71</v>
+      </c>
+      <c r="H78" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
         <v>2012</v>
       </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61">
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>51</v>
+      </c>
+      <c r="G79">
+        <v>103</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>3</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80">
+        <v>2012</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>90</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>34</v>
+      </c>
+      <c r="G80">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81">
+        <v>2004</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>58.7</v>
+      </c>
+      <c r="G81">
+        <v>113</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82">
+        <v>2010</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>56</v>
+      </c>
+      <c r="G82">
         <v>26</v>
       </c>
-      <c r="H61" t="s">
-        <v>2</v>
-      </c>
-      <c r="I61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62">
-        <v>2012</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63">
-        <v>2012</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63">
-        <v>28</v>
-      </c>
-      <c r="H63" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64">
-        <v>2012</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s">
-        <v>2</v>
-      </c>
-      <c r="I64" t="s">
-        <v>85</v>
+      <c r="H82" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
